--- a/survey.xlsx
+++ b/survey.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Person</t>
   </si>
@@ -73,6 +73,9 @@
     <t>PARENT</t>
   </si>
   <si>
+    <t>CHILD</t>
+  </si>
+  <si>
     <t>Mean Age</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
     <t>3B</t>
   </si>
   <si>
-    <t>ADULT</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Black Female</t>
+  </si>
+  <si>
+    <t>Personals</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +609,7 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +634,11 @@
       <c r="H1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -646,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -658,8 +664,12 @@
         <f>CONCATENATE(D2,B2)</f>
         <v>WM</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="str">
+        <f>CONCATENATE(LEFT(E2),D2,B2,C2)</f>
+        <v>SWM18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -673,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -685,8 +695,12 @@
         <f t="shared" ref="H3:H8" si="0">CONCATENATE(D3,B3)</f>
         <v>WF</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I8" si="1">CONCATENATE(LEFT(E3),D3,B3,C3)</f>
+        <v>SWF24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -712,8 +726,12 @@
         <f t="shared" si="0"/>
         <v>WM</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>MWM30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -739,8 +757,12 @@
         <f t="shared" si="0"/>
         <v>BF</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>MBF36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -766,8 +788,12 @@
         <f t="shared" si="0"/>
         <v>BM</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>MBM84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -781,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -793,8 +819,12 @@
         <f t="shared" si="0"/>
         <v>BF</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>SBF8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -820,36 +850,40 @@
         <f t="shared" si="0"/>
         <v>BF</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>MBF66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10">
         <f>COUNT(Age)</f>
@@ -868,12 +902,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <f>COUNTIF(Sex,"=F")</f>
@@ -892,12 +926,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <f>COUNTIF(Sex,"=M")</f>
@@ -916,12 +950,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <f>COUNTIF(Race,"=B")</f>
@@ -940,12 +974,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="10">
         <f>COUNTIF(Race,"=W")</f>
@@ -966,10 +1000,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5">
         <f>COUNTIF(Marital,"=SA")</f>
@@ -990,10 +1024,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <f>COUNTIF(Marital,"=M")</f>
@@ -1045,7 +1079,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
